--- a/연대표.xlsx
+++ b/연대표.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311EB60-A9F2-407B-90B0-21F0C7143DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078639D-4786-48AF-A494-3F288DF1DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D061E143-D4AA-4859-8EE6-99F863AF18B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="연대표" sheetId="2" r:id="rId1"/>
+    <sheet name="사건정리" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>바람의 신 바유, 인간계에 강림하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,34 +45,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람의 신이 인간들에게 신의 힘을 빌려쓰는 방법을 가르치다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간이 최초로 신의 직접적인 도움없이 수라를 토벌하는데 성공하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람의 신전이 세워지다. 신을 따르는 무리가 모여 안테라스가 건국되다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기원전 144년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안테라스에 수라를 토벌하는 세른 기사단이 창설되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기원전 137년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">세른 기사단의 보급거점을 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수라의 출몰이 잦은 이시카대륙 북부에 기사단의 거점기지가 설치되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +78,458 @@
   </si>
   <si>
     <t>바유강림 40년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 61년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 70년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 84년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신이 인간들에게 지혜를 전하고 가르치다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 대신관이 사망하고 2대 대신관이 선출되다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 95년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라무티의 탄생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리의 폭주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수라들이 인간계로 옮겨지다  
+인간들이 지성을 갖게되다   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현우주의 창조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른기사단의 기사단 사무실이 위치한 거점기지를 중심으로 기사의도시 세르닐이 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신전이 세워지다. 바유를 따르는 무리가 모여 신성국가 안테라스가 건국되다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 97년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신관이 이단사냥을 명하다. 불신자들에 대한 탄압이 시작되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동쪽의 황무지로 추방된 이들이 도시 마니카를 세우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신관에 의해 티슬라의 처형이 결정되나 바유의 명으로 티슬라가 대륙 동쪽의 황무지로 추방되다 불신자들의 무리가 티슬라를 따라 황무지로 떠나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 100년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신 바유, 비슈누와의 맹약으로 인간계에 강림하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 99년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 4년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 9년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 91년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">씬내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 10년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 2년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편물 배달대행 청풍이 대륙 북서부 푸른늑대 마을에 사무소를 차리며 개업하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바유강림 92년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 기사단장이 수라 킨나라의 토벌전에서 사망하고 킨나라의 토벌에 실패하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 파루가 2대 기사단장의 직위에 오르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신관이 기사단장에 대한 파면을 선언하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단장이 세르닐에 대한 기사단의 자치권 보장을 요구하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 15년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단장 파루, 기사의나라 세른왕국을 세우고 왕이 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카의 토벌대가 거대수라 바그나르의 토벌에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 거대수라 하누만의 토벌에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 33년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단, 신관들의 부정부패를 만천하에 발고하고 민중을 위한 해방전쟁을 선포하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 아닌 민간단체에서 수라 탈타라를 토벌하다. 그 자리에 토벌대를 이끈 이의 이름을 딴 도시인 이화가 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신관 티슬라가 이단사냥을 부정하는 성명을 내다 티슬라가 심판관에 의해 체포되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신관, 결사항전을 선언했으나 3일만에 기사단에 의해 사로잡히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 40년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 31년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 6년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 7년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 인간을 등지고 떠나게 된 책임을 물어 대신관을 비롯한 신관들이 처형당하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바그나르의 심장이 마니카의 메인 동력시스템에 연결되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 27년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 가문의 당주 연이화, 스스로 대륙 서남부의 제후임을 선언하고, 영향력을 굳히기위해 군사를 일으키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 19년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 셋째 왕자가 왕위를 노리고 반정을 일으키나, 넷째 왕자가 이끄는 왕실 근위대에 의해 제압되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 국왕 파루가 죽고 둘째 왕자가 왕위를 잇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">승천 42년 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 53년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 50년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 안테라스 수도방위군을 제압하고 대신관의 투항을 요구하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 신성국가의 멸망과 민중해방을 선언하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽림향 바위산 꼭대기에 바유가 떠나며 남기고간 신물이 발견되다 신물의 위치에 신물을 모시는 호박석 사원이 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박동을 멈추지 않고 끝없이 에너지는 뿜어내는 바르나르의 심장에 대한 연구가 시작되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편물 배달대행 청풍, 세른으로 본사를 이전하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 61년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 이화가 일선에서 물러나고 전 당주의 뜻을 이어 연 이화의 첫째 딸, 연 서우가 연의 당주가 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의 당주 연 서우가 병환으로 사망하여 연 서우의 첫째 딸, 연 소희가 연의 당주가 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 66년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 77년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카 행정부가 마니카 공화국의 건립을 공식적으로 선언하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 51년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카에 사막 기후 특유의 풍토병이 유행하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍토병 유행이 정권심판 여론으로 이어져 마니카 건립 20년만에 민정당이 행정관 선거에서 승리하여 정권을 교체하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 소희가 전 당주, 연 서우와 같은 병을 얻어 사망하다 연 홍연이 어린나이에 당주직을 물려받아 최 측근 라다가 당주대리로써 실권을 잡다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 63년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카 행정관 선거에서 민정당 대표가 두번째 연임에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 65년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카 행정관의 부정부패가 세상에 알려지다 행정관은 체포되기 직전 집무실에서 자살하고 보궐선거에서 공화당이 정권교체에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 85년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리카르도 왕의 첫째왕자가 수라 킨나라 토벌전에서 사망하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연과 세른의 연합군이 수라 킨나라를 토벌에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리카르도의 둘째 왕자가 왕자의 이름을 버리고 왕국을 떠나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 79년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 국왕 리카르도가 사망하고 셋째왕자 아셀이 다음 왕위에 오르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천 91년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신전이 세워지다
+신성국가 안테라스가 건국되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 최초로 수라 성체의 토벌에 성공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙 북부에 위치한 기사단 사무실을 중심으로 기사의 도시 세르닐이 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 토벌을 목적으로 하는
+세른 기사단이 창설되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 탈타라가 토벌되고
+그 자리에 도시 이화가 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 대신관이 사망하고 
+2대 대신관이 선출되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편물 배달대행 청풍이 대륙 북서부
+푸른늑대 마을에 사무소를 차리며 개업하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단의 손에 거대수라 하누만이 토벌되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신관 티슬라가 이단자들을 감싸다 황무지로 추방당하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황무지로 추방당한 자들이 도시 마니카를 세우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신 바유, 인간의 곁을 떠나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신 바유, 본인의 존재가 오히려 인간들의 자유로운 삶을 침해하고 분쟁의 원인이 된다고 생각하여 인간계를 떠나 천상계로 돌아간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 파루가 2대 기사단장이 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 신성국가의 정통성을 부정하며
+해방전쟁을 선포하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단장 파루, 기사의 나라 세른의 건국을 선포하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽림향 바위산 꼭대기에 바유의 신물이 발견되고
+호박석 사원이 세워지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 가문의 연 이화가 스스로
+대륙 서남부의 제후임을 선언하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 서우가 연 가문의 2대 당주가 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단에 의해 대신관을 포함한 신관들이 처형당하다
+신성국가가 무너지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 수라 바그나르가 토벌되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불신자들에 대한 탄압이 공식적으로 가시화 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 국왕이 서거하고 둘째왕자가 왕위를 잇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 2대 국왕이 자신의 동생인(전 4왕자) 리카르도에게 선위하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세른의 2대 국왕이 자신의 동생
+리카르도(전 4왕자)에게 선위하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바그나르의 심장이 마니카의 동력에너지원이 되다
+마니카의 행정관이 공화국을 선포하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니카 건립 20년만에 여야 정권교체가 이루어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 서우가 병환으로 사망하여 연 소희가 차기 당주에 오르다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,21 +553,69 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -143,9 +624,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,6 +703,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="자유형: 도형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF380B9-9B17-40AF-BD9A-59AD67D9B98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="840000">
+          <a:off x="8315326" y="1485899"/>
+          <a:ext cx="371475" cy="209550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 762000"/>
+            <a:gd name="connsiteY0" fmla="*/ 209550 h 209550"/>
+            <a:gd name="connsiteX1" fmla="*/ 228600 w 762000"/>
+            <a:gd name="connsiteY1" fmla="*/ 38100 h 209550"/>
+            <a:gd name="connsiteX2" fmla="*/ 571500 w 762000"/>
+            <a:gd name="connsiteY2" fmla="*/ 171450 h 209550"/>
+            <a:gd name="connsiteX3" fmla="*/ 762000 w 762000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 209550"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="762000" h="209550">
+              <a:moveTo>
+                <a:pt x="0" y="209550"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="66675" y="127000"/>
+                <a:pt x="133350" y="44450"/>
+                <a:pt x="228600" y="38100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="323850" y="31750"/>
+                <a:pt x="482600" y="177800"/>
+                <a:pt x="571500" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="660400" y="165100"/>
+                <a:pt x="723900" y="52387"/>
+                <a:pt x="762000" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="88900">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="자유형: 도형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8FB3E1-BB5C-4698-B0C6-A7F949B4D0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="840000">
+          <a:off x="8324851" y="3914773"/>
+          <a:ext cx="371475" cy="209550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 762000"/>
+            <a:gd name="connsiteY0" fmla="*/ 209550 h 209550"/>
+            <a:gd name="connsiteX1" fmla="*/ 228600 w 762000"/>
+            <a:gd name="connsiteY1" fmla="*/ 38100 h 209550"/>
+            <a:gd name="connsiteX2" fmla="*/ 571500 w 762000"/>
+            <a:gd name="connsiteY2" fmla="*/ 171450 h 209550"/>
+            <a:gd name="connsiteX3" fmla="*/ 762000 w 762000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 209550"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="762000" h="209550">
+              <a:moveTo>
+                <a:pt x="0" y="209550"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="66675" y="127000"/>
+                <a:pt x="133350" y="44450"/>
+                <a:pt x="228600" y="38100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="323850" y="31750"/>
+                <a:pt x="482600" y="177800"/>
+                <a:pt x="571500" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="660400" y="165100"/>
+                <a:pt x="723900" y="52387"/>
+                <a:pt x="762000" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="88900">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,85 +1234,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A270B-5156-492A-853F-4157246401AF}">
+  <dimension ref="B3:X58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="8.625" style="13" customWidth="1"/>
+    <col min="7" max="11" width="8.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="1" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="0.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="1" style="3" customWidth="1"/>
+    <col min="17" max="21" width="8.625" style="3" customWidth="1"/>
+    <col min="22" max="24" width="8.625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="2"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="16" spans="2:21" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="O16" s="10"/>
+      <c r="Q16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="4:22" ht="24.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="M17" s="10"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O21" s="10"/>
+      <c r="Q21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="M22" s="10"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="10"/>
+      <c r="Q24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="4:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="10"/>
+      <c r="Q29" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="M30" s="10"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O32" s="10"/>
+      <c r="Q32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D33" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="M33" s="10"/>
+      <c r="Q33" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="O34" s="10"/>
+      <c r="Q34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D35" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="M35" s="10"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+    </row>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="O37" s="10"/>
+      <c r="Q37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+    </row>
+    <row r="38" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="M38" s="10"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+    </row>
+    <row r="39" spans="4:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="O39" s="10"/>
+      <c r="Q39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+    </row>
+    <row r="41" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D41" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="O42" s="10"/>
+      <c r="Q42" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+    </row>
+    <row r="43" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="M43" s="10"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+    </row>
+    <row r="44" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="O44" s="10"/>
+      <c r="Q44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+    </row>
+    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+    </row>
+    <row r="46" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D46" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="O48" s="6"/>
+      <c r="Q48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+    </row>
+    <row r="49" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D49" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="M49" s="10"/>
+      <c r="O49" s="9"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+    </row>
+    <row r="50" spans="4:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="O50" s="10"/>
+      <c r="Q50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+    </row>
+    <row r="51" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+    </row>
+    <row r="52" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D52" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="O54" s="10"/>
+      <c r="Q54" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+    </row>
+    <row r="55" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+    </row>
+    <row r="57" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D57" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="Q54:X55"/>
+    <mergeCell ref="D57:K58"/>
+    <mergeCell ref="D41:K42"/>
+    <mergeCell ref="Q42:X43"/>
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="Q44:X45"/>
+    <mergeCell ref="D46:K47"/>
+    <mergeCell ref="F22:K23"/>
+    <mergeCell ref="D35:K36"/>
+    <mergeCell ref="D33:K34"/>
+    <mergeCell ref="Q37:X38"/>
+    <mergeCell ref="D38:K39"/>
+    <mergeCell ref="Q39:X40"/>
+    <mergeCell ref="Q48:X49"/>
+    <mergeCell ref="D49:K50"/>
+    <mergeCell ref="Q50:X51"/>
+    <mergeCell ref="D52:K53"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="G17:K18"/>
+    <mergeCell ref="F27:K28"/>
+    <mergeCell ref="Q29:V30"/>
+    <mergeCell ref="F30:K31"/>
+    <mergeCell ref="Q34:X35"/>
+    <mergeCell ref="Q21:U22"/>
+    <mergeCell ref="Q24:V25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01116D-E6F3-498A-BD1B-732A8BF65F36}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/연대표.xlsx
+++ b/연대표.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078639D-4786-48AF-A494-3F288DF1DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F64A3-05E7-4E05-940C-9634D526BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D061E143-D4AA-4859-8EE6-99F863AF18B7}"/>
+    <workbookView xWindow="855" yWindow="345" windowWidth="35805" windowHeight="20535" activeTab="1" xr2:uid="{D061E143-D4AA-4859-8EE6-99F863AF18B7}"/>
   </bookViews>
   <sheets>
     <sheet name="연대표" sheetId="2" r:id="rId1"/>
     <sheet name="사건정리" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">사건정리!$B$2:$C$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>바람의 신 바유, 인간계에 강림하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,59 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안테라스에 수라를 토벌하는 세른 기사단이 창설되다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수라의 출몰이 잦은 이시카대륙 북부에 기사단의 거점기지가 설치되다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">세른기사단의 기사단 사무실이 이시카 대륙 북부에 설치된 거점기지에 이관되다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바유강림 0년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 3년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 11년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 37년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 40년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 61년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 70년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 84년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의 신이 인간들에게 지혜를 전하고 가르치다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초대 대신관이 사망하고 2대 대신관이 선출되다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 95년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,46 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바유강림 97년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신관이 이단사냥을 명하다. 불신자들에 대한 탄압이 시작되다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동쪽의 황무지로 추방된 이들이 도시 마니카를 세우다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대신관에 의해 티슬라의 처형이 결정되나 바유의 명으로 티슬라가 대륙 동쪽의 황무지로 추방되다 불신자들의 무리가 티슬라를 따라 황무지로 떠나다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 100년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의 신 바유, 비슈누와의 맹약으로 인간계에 강림하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 99년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 4년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 9년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바유강림 91년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">씬내용 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,30 +101,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 10년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 2년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우편물 배달대행 청풍이 대륙 북서부 푸른늑대 마을에 사무소를 차리며 개업하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바유강림 92년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대 기사단장이 수라 킨나라의 토벌전에서 사망하고 킨나라의 토벌에 실패하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기사 파루가 2대 기사단장의 직위에 오르다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대신관이 기사단장에 대한 파면을 선언하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 15년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기사단장 파루, 기사의나라 세른왕국을 세우고 왕이 되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기사단이 거대수라 하누만의 토벌에 성공하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 33년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기사단, 신관들의 부정부패를 만천하에 발고하고 민중을 위한 해방전쟁을 선포하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,30 +129,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신관 티슬라가 이단사냥을 부정하는 성명을 내다 티슬라가 심판관에 의해 체포되다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대신관, 결사항전을 선언했으나 3일만에 기사단에 의해 사로잡히다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 40년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 31년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 6년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 7년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신이 인간을 등지고 떠나게 된 책임을 물어 대신관을 비롯한 신관들이 처형당하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,18 +141,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 27년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연 가문의 당주 연이화, 스스로 대륙 서남부의 제후임을 선언하고, 영향력을 굳히기위해 군사를 일으키다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 19년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세른의 셋째 왕자가 왕위를 노리고 반정을 일으키나, 넷째 왕자가 이끄는 왕실 근위대에 의해 제압되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">승천 42년 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 53년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 50년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기사단이 안테라스 수도방위군을 제압하고 대신관의 투항을 요구하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 61년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연 이화가 일선에서 물러나고 전 당주의 뜻을 이어 연 이화의 첫째 딸, 연 서우가 연의 당주가 되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,22 +181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 66년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 77년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마니카 행정부가 마니카 공화국의 건립을 공식적으로 선언하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 51년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마니카에 사막 기후 특유의 풍토병이 유행하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,26 +197,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 63년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마니카 행정관 선거에서 민정당 대표가 두번째 연임에 성공하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 65년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마니카 행정관의 부정부패가 세상에 알려지다 행정관은 체포되기 직전 집무실에서 자살하고 보궐선거에서 공화당이 정권교체에 성공하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 85년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리카르도 왕의 첫째왕자가 수라 킨나라 토벌전에서 사망하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,15 +217,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승천 79년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세른의 국왕 리카르도가 사망하고 셋째왕자 아셀이 다음 왕위에 오르다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승천 91년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,6 +341,52 @@
   </si>
   <si>
     <t>연 서우가 병환으로 사망하여 연 소희가 차기 당주에 오르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 신 바유, 비슈누와의 맹약으로 인간계에 강림하다
+바람의 신이 인간들에게 지혜를 전하고 가르치다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안테라스에 수라를 토벌하는 세른 기사단이 창설되다
+수라의 출몰이 잦은 이시카대륙 북부에 기사단의 거점기지가 설치되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 거대수라 하누만의 토벌에 성공하다
+대신관이 이단사냥을 명하다. 불신자들에 대한 탄압이 시작되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신관 티슬라가 이단사냥을 부정하는 성명을 내다 티슬라가 심판관에 의해 체포되다
+대신관에 의해 티슬라의 처형이 결정되나 바유의 명으로 티슬라가 대륙 동쪽의 황무지로 추방되다
+불신자들의 무리가 티슬라를 따라 황무지로 떠나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 기사단장이 수라 킨나라의 토벌전에서 사망하고 킨나라의 토벌에 실패하다
+기사 파루가 2대 기사단장의 직위에 오르다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,23 +527,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A270B-5156-492A-853F-4157246401AF}">
   <dimension ref="B3:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -1255,19 +1118,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="2"/>
       <c r="M3" s="10"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,17 +1155,17 @@
       <c r="O9" s="10"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="J10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="18"/>
+      <c r="J10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="2"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1311,28 +1174,28 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="G11" s="6"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2"/>
       <c r="M11" s="9"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="11"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="11"/>
       <c r="M13" s="9"/>
     </row>
@@ -1348,13 +1211,13 @@
       <c r="U16" s="16"/>
     </row>
     <row r="17" spans="4:22" ht="24.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="M17" s="10"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
@@ -1363,157 +1226,157 @@
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="O21" s="10"/>
-      <c r="Q21" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="Q21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="F22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="M22" s="10"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O24" s="10"/>
-      <c r="Q24" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="Q24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F27" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="F27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="4:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O29" s="10"/>
-      <c r="Q29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="Q29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
     </row>
     <row r="30" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="F30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="M30" s="10"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="O32" s="10"/>
       <c r="Q32" s="3" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D33" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="D33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
       <c r="M33" s="10"/>
       <c r="Q33" s="3" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
       <c r="O34" s="10"/>
       <c r="Q34" s="16" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
@@ -1524,16 +1387,16 @@
       <c r="X34" s="16"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D35" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="D35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
       <c r="M35" s="10"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
@@ -1545,14 +1408,14 @@
       <c r="X35" s="16"/>
     </row>
     <row r="36" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -1565,7 +1428,7 @@
     <row r="37" spans="4:24" x14ac:dyDescent="0.3">
       <c r="O37" s="10"/>
       <c r="Q37" s="16" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -1576,16 +1439,16 @@
       <c r="X37" s="16"/>
     </row>
     <row r="38" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D38" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="D38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
       <c r="M38" s="10"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -1597,61 +1460,61 @@
       <c r="X38" s="16"/>
     </row>
     <row r="39" spans="4:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
       <c r="O39" s="10"/>
-      <c r="Q39" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
+      <c r="Q39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
     </row>
     <row r="40" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
     </row>
     <row r="41" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D41" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="D41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
       <c r="O42" s="10"/>
-      <c r="Q42" s="15" t="s">
-        <v>109</v>
+      <c r="Q42" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
@@ -1662,16 +1525,16 @@
       <c r="X42" s="16"/>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D43" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+      <c r="D43" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
       <c r="M43" s="10"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -1683,17 +1546,17 @@
       <c r="X43" s="16"/>
     </row>
     <row r="44" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
       <c r="O44" s="10"/>
       <c r="Q44" s="16" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
@@ -1714,32 +1577,32 @@
       <c r="X45" s="16"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D46" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="D46" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="4:24" x14ac:dyDescent="0.3">
       <c r="O48" s="6"/>
-      <c r="Q48" s="15" t="s">
-        <v>118</v>
+      <c r="Q48" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
@@ -1750,16 +1613,16 @@
       <c r="X48" s="16"/>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D49" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="D49" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
       <c r="M49" s="10"/>
       <c r="O49" s="9"/>
       <c r="Q49" s="16"/>
@@ -1772,63 +1635,63 @@
       <c r="X49" s="16"/>
     </row>
     <row r="50" spans="4:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
       <c r="O50" s="10"/>
-      <c r="Q50" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
+      <c r="Q50" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
     </row>
     <row r="51" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D52" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="D52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
       <c r="M52" s="10"/>
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
     </row>
     <row r="54" spans="4:24" x14ac:dyDescent="0.3">
       <c r="O54" s="10"/>
       <c r="Q54" s="16" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -1849,30 +1712,48 @@
       <c r="X55" s="16"/>
     </row>
     <row r="57" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D57" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
+      <c r="D57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="G17:K18"/>
+    <mergeCell ref="F22:K23"/>
+    <mergeCell ref="D35:K36"/>
+    <mergeCell ref="D33:K34"/>
+    <mergeCell ref="Q37:X38"/>
+    <mergeCell ref="D38:K39"/>
+    <mergeCell ref="Q39:X40"/>
+    <mergeCell ref="F27:K28"/>
+    <mergeCell ref="Q29:V30"/>
+    <mergeCell ref="F30:K31"/>
+    <mergeCell ref="Q34:X35"/>
+    <mergeCell ref="Q21:U22"/>
+    <mergeCell ref="Q24:V25"/>
     <mergeCell ref="Q54:X55"/>
     <mergeCell ref="D57:K58"/>
     <mergeCell ref="D41:K42"/>
@@ -1880,28 +1761,10 @@
     <mergeCell ref="D43:K44"/>
     <mergeCell ref="Q44:X45"/>
     <mergeCell ref="D46:K47"/>
-    <mergeCell ref="F22:K23"/>
-    <mergeCell ref="D35:K36"/>
-    <mergeCell ref="D33:K34"/>
-    <mergeCell ref="Q37:X38"/>
-    <mergeCell ref="D38:K39"/>
-    <mergeCell ref="Q39:X40"/>
     <mergeCell ref="Q48:X49"/>
     <mergeCell ref="D49:K50"/>
     <mergeCell ref="Q50:X51"/>
     <mergeCell ref="D52:K53"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="G17:K18"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="Q29:V30"/>
-    <mergeCell ref="F30:K31"/>
-    <mergeCell ref="Q34:X35"/>
-    <mergeCell ref="Q21:U22"/>
-    <mergeCell ref="Q24:V25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1912,415 +1775,539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01116D-E6F3-498A-BD1B-732A8BF65F36}">
-  <dimension ref="A1:Z105"/>
+  <dimension ref="B1:AB102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="12">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="15">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="12">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="12">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="12">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="12">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="12">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="15">
+        <v>95</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="15">
+        <v>97</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="12">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="12">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="20">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="20">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" t="s">
+    <row r="22" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="26" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="12">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="12">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="12">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="20">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="12">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="21">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="12">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="12">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    </row>
+    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="12">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="12">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="12">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="12">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="12">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="12">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="12">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="45" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="12">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="46" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="12">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="R28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="48" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2359,20 +2346,13 @@
     <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
+  <autoFilter ref="B2:C102" xr:uid="{3C01116D-E6F3-498A-BD1B-732A8BF65F36}"/>
+  <mergeCells count="4">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
